--- a/Orange/LearningCurves.xlsx
+++ b/Orange/LearningCurves.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Water Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="Heart SBP -  Cholesterol" sheetId="2" r:id="rId2"/>
+    <sheet name="From Learning-Curves Notebook" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>High Bias Scenario</t>
   </si>
@@ -46,15 +48,40 @@
   <si>
     <t>3-fold cross validation on training and test datasets</t>
   </si>
+  <si>
+    <t>MSE measured on the training and test datasets respectively</t>
+  </si>
+  <si>
+    <t>Training Error (MSE)</t>
+  </si>
+  <si>
+    <t>Test Error (MSE)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +104,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -182,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>'Water Flow'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -217,7 +260,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:f>'Water Flow'!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -247,7 +290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
+              <c:f>'Water Flow'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -282,7 +325,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>'Water Flow'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -317,7 +360,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:f>'Water Flow'!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -347,7 +390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$10</c:f>
+              <c:f>'Water Flow'!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -387,11 +430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1457169504"/>
-        <c:axId val="-1498117360"/>
+        <c:axId val="796596816"/>
+        <c:axId val="796598864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1457169504"/>
+        <c:axId val="796596816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1498117360"/>
+        <c:crossAx val="796598864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -442,7 +485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1498117360"/>
+        <c:axId val="796598864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1457169504"/>
+        <c:crossAx val="796596816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -659,7 +702,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$28</c:f>
+              <c:f>'Water Flow'!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -694,7 +737,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$29:$A$35</c:f>
+              <c:f>'Water Flow'!$A$29:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -724,7 +767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$B$35</c:f>
+              <c:f>'Water Flow'!$B$29:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -759,7 +802,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$28</c:f>
+              <c:f>'Water Flow'!$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -794,7 +837,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$29:$A$35</c:f>
+              <c:f>'Water Flow'!$A$29:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -824,7 +867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$C$35</c:f>
+              <c:f>'Water Flow'!$C$29:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -864,11 +907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1455574192"/>
-        <c:axId val="-1455572832"/>
+        <c:axId val="795649456"/>
+        <c:axId val="795651504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1455574192"/>
+        <c:axId val="795649456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1455572832"/>
+        <c:crossAx val="795651504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1455572832"/>
+        <c:axId val="795651504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100.0"/>
@@ -971,7 +1014,1897 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1455574192"/>
+        <c:crossAx val="795649456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Learning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curves - High Bias</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heart SBP -  Cholesterol'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Error (RMSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heart SBP -  Cholesterol'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Error (RMSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="796636192"/>
+        <c:axId val="796638672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="796636192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796638672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796638672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796636192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Learning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curves - High Variance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heart SBP -  Cholesterol'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Error (RMSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$A$29:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heart SBP -  Cholesterol'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Error (RMSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$A$29:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heart SBP -  Cholesterol'!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>623.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="795722928"/>
+        <c:axId val="795725408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="795722928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795725408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795725408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795722928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Learning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curves - High Bias</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From Learning-Curves Notebook'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Error (MSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From Learning-Curves Notebook'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Error (MSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="902006080"/>
+        <c:axId val="902008128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="902006080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902008128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="902008128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902006080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Learning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curves - High Variance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From Learning-Curves Notebook'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Error (MSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$A$29:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$B$29:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From Learning-Curves Notebook'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Error (MSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$A$29:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'From Learning-Curves Notebook'!$C$29:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5010269498E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.702106297E11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="796700816"/>
+        <c:axId val="796703296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="796700816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796703296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796703296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796700816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,6 +3065,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1636,6 +3729,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2182,6 +6287,144 @@
       <xdr:colOff>584200</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2470,8 +6713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2677,4 +6920,408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>240</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>278</v>
+      </c>
+      <c r="C29">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>169</v>
+      </c>
+      <c r="C31">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>125</v>
+      </c>
+      <c r="B32">
+        <v>58</v>
+      </c>
+      <c r="C32">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>175</v>
+      </c>
+      <c r="B33">
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>240</v>
+      </c>
+      <c r="B35">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.43</v>
+      </c>
+      <c r="C5">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.69</v>
+      </c>
+      <c r="C6">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2.59</v>
+      </c>
+      <c r="C7">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>2.52</v>
+      </c>
+      <c r="C8">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>2.67</v>
+      </c>
+      <c r="C9">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>65010269498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>0.05</v>
+      </c>
+      <c r="C32">
+        <v>570210629700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>0.33</v>
+      </c>
+      <c r="C33">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>80</v>
+      </c>
+      <c r="B34">
+        <v>0.42</v>
+      </c>
+      <c r="C34">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>